--- a/biology/Zoologie/Colibri_à_gorge_lilas/Colibri_à_gorge_lilas.xlsx
+++ b/biology/Zoologie/Colibri_à_gorge_lilas/Colibri_à_gorge_lilas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_lilas</t>
+          <t>Colibri_à_gorge_lilas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampornis hemileucus
 Le Colibri à gorge lilas (Lampornis hemileucus) est une espèce d'oiseau de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_gorge_lilas</t>
+          <t>Colibri_à_gorge_lilas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans la cordillère de Talamanca.
 Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, la végétation de broussailles humides. On la trouve aussi sur les sites d'anciennes forêts lourdement dégradées.
